--- a/test/Audited/00-audited_results.xlsx
+++ b/test/Audited/00-audited_results.xlsx
@@ -280,7 +280,7 @@
     <t>[[120, 37], [130, 36], [140, 32], [110, 19], [150, 17]]</t>
   </si>
   <si>
-    <t>[[197, 6], [234, 6], [204, 6], [254, 5], [212, 5]]</t>
+    <t>[[234, 6], [197, 6], [204, 6], [254, 5], [269, 5]]</t>
   </si>
   <si>
     <t>[[0, 258], [1, 45]]</t>
@@ -289,7 +289,7 @@
     <t>[[0, 151], [2, 148], [1, 4]]</t>
   </si>
   <si>
-    <t>[[162, 11], [163, 9], [160, 9], [152, 8], [132, 7]]</t>
+    <t>[[162, 11], [163, 9], [160, 9], [152, 8], [173, 7]]</t>
   </si>
   <si>
     <t>[[0, 204], [1, 99]]</t>
